--- a/project1/Retail_Dashboard_20SEP2023.xlsx
+++ b/project1/Retail_Dashboard_20SEP2023.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26907"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub_Projects\DSM_CHALLENGES\DSM_EXCEL_PIVOT_DASH_CHALLENEGE\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F2FA475D-C65B-43BA-892C-A25CAEC37503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11460C9-567C-45B3-BF31-7E5F4B1F11FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboards" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -138,11 +138,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -631,9 +631,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="22"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="23"/>
   </cellXfs>
@@ -681,54 +681,30 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -808,6 +784,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -852,6 +837,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -5023,6 +5017,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>118.0</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="3600"/>
@@ -5100,6 +5095,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t> 22,176 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1800"/>
@@ -5177,6 +5173,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>67.7%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="3200"/>
@@ -6097,7 +6094,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Kunaal Naik" refreshedDate="45189.302516087962" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="36">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kunaal Naik" refreshedDate="45189.302516087962" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="36" xr:uid="{00000000-000A-0000-FFFF-FFFF0F000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="tbl_monthly_summary"/>
   </cacheSource>
@@ -7111,7 +7108,172 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="24">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="37">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Sum of Monthly Sales" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Average of Average Transaction Value" fld="2" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Sum of New Customers Acquired" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Average of Customer Retention Rate" fld="3" subtotal="average" baseField="0" baseItem="1"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable8" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="M3:N19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField numFmtId="14" showAll="0">
@@ -7257,10 +7419,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Customer Retention Rate" fld="3" subtotal="average" baseField="22" baseItem="1" numFmtId="171"/>
+    <dataField name="Average of Customer Retention Rate" fld="3" subtotal="average" baseField="22" baseItem="1" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="15">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7296,8 +7458,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable7" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="J3:K19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField numFmtId="14" showAll="0">
@@ -7443,10 +7605,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of New Customers Acquired" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of New Customers Acquired" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7482,8 +7644,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable6" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="G3:H19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField numFmtId="14" showAll="0">
@@ -7629,10 +7791,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Average Transaction Value" fld="2" subtotal="average" baseField="23" baseItem="2" numFmtId="170"/>
+    <dataField name="Average of Average Transaction Value" fld="2" subtotal="average" baseField="23" baseItem="2" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7659,8 +7821,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="D3:E19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField numFmtId="14" showAll="0">
@@ -7806,10 +7968,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Monthly Sales" fld="1" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Monthly Sales" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="12">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7836,197 +7998,32 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="24">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="37">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Sum of Monthly Sales" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Average of Average Transaction Value" fld="2" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Sum of New Customers Acquired" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Average of Customer Retention Rate" fld="3" subtotal="average" baseField="0" baseItem="1"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="8">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbl_monthly_summary" displayName="tbl_monthly_summary" ref="A1:V37" totalsRowShown="0">
-  <autoFilter ref="A1:V37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_monthly_summary" displayName="tbl_monthly_summary" ref="A1:V37" totalsRowShown="0">
+  <autoFilter ref="A1:V37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="22">
-    <tableColumn id="1" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" name="Monthly Sales"/>
-    <tableColumn id="3" name="Average Transaction Value"/>
-    <tableColumn id="4" name="Customer Retention Rate"/>
-    <tableColumn id="5" name="New Customers Acquired"/>
-    <tableColumn id="6" name="Electronics Sales"/>
-    <tableColumn id="7" name="Furniture Sales"/>
-    <tableColumn id="8" name="Groceries Sales"/>
-    <tableColumn id="9" name="Clothing Sales"/>
-    <tableColumn id="10" name="Accessories Sales"/>
-    <tableColumn id="11" name="Age 18-25"/>
-    <tableColumn id="12" name="Age 26-35"/>
-    <tableColumn id="13" name="Age 36-45"/>
-    <tableColumn id="14" name="Age 46-60"/>
-    <tableColumn id="15" name="Age 60+"/>
-    <tableColumn id="16" name="Male"/>
-    <tableColumn id="17" name="Female"/>
-    <tableColumn id="18" name="Other"/>
-    <tableColumn id="19" name="Morning (6-12)"/>
-    <tableColumn id="20" name="Afternoon (12-18)"/>
-    <tableColumn id="21" name="Evening (18-24)"/>
-    <tableColumn id="22" name="Night (0-6)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Monthly Sales"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Average Transaction Value"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Customer Retention Rate"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="New Customers Acquired"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Electronics Sales"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Furniture Sales"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Groceries Sales"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Clothing Sales"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Accessories Sales"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Age 18-25"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Age 26-35"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Age 36-45"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Age 46-60"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Age 60+"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Male"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Female"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Other"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Morning (6-12)"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Afternoon (12-18)"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Evening (18-24)"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Night (0-6)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8348,11 +8345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8402,11 +8399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10953,11 +10950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project1/Retail_Dashboard_20SEP2023.xlsx
+++ b/project1/Retail_Dashboard_20SEP2023.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27022"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub_Projects\DSM_CHALLENGES\DSM_EXCEL_PIVOT_DASH_CHALLENEGE\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11460C9-567C-45B3-BF31-7E5F4B1F11FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E4CFF-3136-4A8A-8D3E-2969E36ADC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboards" sheetId="3" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
     <sheet name="Pivots" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -681,9 +694,33 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -707,7 +744,7 @@
       <numFmt numFmtId="166" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7108,7 +7145,361 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable6" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="G3:H19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="24">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="37">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="23"/>
+    <field x="22"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Average Transaction Value" fld="2" subtotal="average" baseField="23" baseItem="2" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="D3:E19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="24">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="37">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="23"/>
+    <field x="22"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Monthly Sales" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField numFmtId="14" showAll="0">
@@ -7223,7 +7614,7 @@
     <dataField name="Average of Customer Retention Rate" fld="3" subtotal="average" baseField="0" baseItem="1"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7232,7 +7623,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7241,7 +7632,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7250,7 +7641,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7272,8 +7663,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable8" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable8" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="M3:N19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField numFmtId="14" showAll="0">
@@ -7422,7 +7813,7 @@
     <dataField name="Average of Customer Retention Rate" fld="3" subtotal="average" baseField="22" baseItem="1" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7458,8 +7849,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable7" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable7" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="J3:K19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField numFmtId="14" showAll="0">
@@ -7608,7 +7999,7 @@
     <dataField name="Sum of New Customers Acquired" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7622,360 +8013,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable6" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="G3:H19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="24">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="37">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="23"/>
-    <field x="22"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Average Transaction Value" fld="2" subtotal="average" baseField="23" baseItem="2" numFmtId="165"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="D3:E19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="24">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="37">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="23"/>
-    <field x="22"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Monthly Sales" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
     <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -8348,13 +8385,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.25" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8402,26 +8439,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
-    <col min="11" max="14" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="14.25" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="14" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10954,25 +10991,25 @@
   <dimension ref="A3:N19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.125" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.375" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
-    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
